--- a/tongubako/cnnbs/catalog.xlsx
+++ b/tongubako/cnnbs/catalog.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tongubako\tongubako\cnnbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696B66F5-15FB-4ED2-B2D7-413299BD2B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CF64A-24B5-4145-834F-4613A1EE2BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{4B9874B8-EC3C-42F1-8543-D67D4CF21F82}"/>
+    <workbookView xWindow="-25068" yWindow="1944" windowWidth="17280" windowHeight="9960" xr2:uid="{4B9874B8-EC3C-42F1-8543-D67D4CF21F82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>SID</t>
   </si>
@@ -44,10 +42,37 @@
     <t>Freq</t>
   </si>
   <si>
-    <t>CNM1YOY</t>
-  </si>
-  <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>CNIVAYOY</t>
+  </si>
+  <si>
+    <t>CNIVAYTD</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Industrial Value-added YoY</t>
+  </si>
+  <si>
+    <t>Industrial Value-added YtD</t>
+  </si>
+  <si>
+    <t>CNPPISMI</t>
+  </si>
+  <si>
+    <t>CNPPIMPSMI</t>
+  </si>
+  <si>
+    <t>CNPPICGSMI</t>
+  </si>
+  <si>
+    <t>Producer Price Index SMI</t>
   </si>
 </sst>
 </file>
@@ -428,31 +453,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17A0925-8F30-4B66-9602-4EF23E84432A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tongubako/cnnbs/catalog.xlsx
+++ b/tongubako/cnnbs/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tongubako\tongubako\cnnbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CF64A-24B5-4145-834F-4613A1EE2BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE766B-89A6-4885-B70F-75C2F70E0AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25068" yWindow="1944" windowWidth="17280" windowHeight="9960" xr2:uid="{4B9874B8-EC3C-42F1-8543-D67D4CF21F82}"/>
+    <workbookView xWindow="-28908" yWindow="-1236" windowWidth="29016" windowHeight="15696" xr2:uid="{4B9874B8-EC3C-42F1-8543-D67D4CF21F82}"/>
   </bookViews>
   <sheets>
     <sheet name="data_list" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>SID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>CNIVAYTD</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
   </si>
   <si>
     <t>Producer Price Index SMI</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Producer Price Index SMI: Means of Production</t>
+  </si>
+  <si>
+    <t>Producer Price Index SMI: Consumer Goods</t>
+  </si>
+  <si>
+    <t>DBName</t>
   </si>
 </sst>
 </file>
@@ -453,82 +465,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17A0925-8F30-4B66-9602-4EF23E84432A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
